--- a/docs/A01/A01.xlsx
+++ b/docs/A01/A01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michu\Dropbox\Schule\WebProg\A01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michu\git\BTI7054q\docs\A01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Kategorie</t>
   </si>
@@ -54,6 +54,42 @@
   </si>
   <si>
     <t>PC; Xbox, PS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Rennspiel</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Strategie</t>
+  </si>
+  <si>
+    <t>Forza Horizon</t>
+  </si>
+  <si>
+    <t>PC; XBOX</t>
+  </si>
+  <si>
+    <t>Need for Speed</t>
+  </si>
+  <si>
+    <t>Mario Kart</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WII </t>
+  </si>
+  <si>
+    <t>Blubberkart</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
 </sst>
 </file>
@@ -380,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,10 +440,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -418,10 +457,16 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -431,6 +476,74 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
